--- a/documents/RCT_Study Criteria v1.1.xlsx
+++ b/documents/RCT_Study Criteria v1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2F1EA-E87C-4888-936D-5ACEC3CE8E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD082A-E070-314A-AB0E-7C412E7B006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-2480" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="734">
   <si>
     <t>혈당강하제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4647,6 +4647,61 @@
   </si>
   <si>
     <t>apixaban (at a dose of 5 mg twice daily) versus warfarin (target international normalized ratio, 2.0 to 3.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLLOW-UP PERIOD</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP PERIOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>338 Weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63 Months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1440 Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 Years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5 Years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 Months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 Months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450 Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840 Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900 Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Months</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4654,7 +4709,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4762,6 +4817,13 @@
       <name val="나눔고딕OTF"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5007,7 +5069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5086,6 +5148,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5109,6 +5174,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5808,7 +5877,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>632912</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>168140</xdr:rowOff>
+      <xdr:rowOff>117340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5852,7 +5921,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>69040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>84323</xdr:rowOff>
+      <xdr:rowOff>33523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7019,15 +7088,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="22.59765625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.4" thickBot="1"/>
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="25.5" customHeight="1" thickBot="1">
       <c r="B2" s="25" t="s">
         <v>0</v>
@@ -7136,11 +7205,11 @@
     </row>
     <row r="12" spans="2:6" ht="12" customHeight="1" thickBot="1"/>
     <row r="13" spans="2:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7172,18 +7241,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A3:D73"/>
+  <dimension ref="A3:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="17.399999999999999">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -7201,7 +7270,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -7210,7 +7279,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7221,548 +7290,561 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>336</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>339</v>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>340</v>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.4">
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>358</v>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>359</v>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>362</v>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>364</v>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
-      <c r="B43" s="2" t="s">
-        <v>369</v>
+      <c r="C43" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
         <v>7</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.399999999999999">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.399999999999999">
-      <c r="A58" s="4">
+    <row r="59" spans="1:2" ht="17">
+      <c r="A59" s="4">
         <v>7</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4">
         <v>17</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4">
+    <row r="72" spans="1:3">
+      <c r="A72" s="4">
         <v>18</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17.399999999999999">
-      <c r="A72" s="4">
+    <row r="73" spans="1:3" ht="17">
+      <c r="A73" s="4">
         <v>19</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.399999999999999">
-      <c r="A73" s="4">
+    <row r="74" spans="1:3" ht="17">
+      <c r="A74" s="4">
         <v>20</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7778,18 +7860,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A3:C44"/>
+  <dimension ref="A3:C46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -7799,7 +7881,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="5" t="s">
         <v>675</v>
       </c>
@@ -7808,7 +7890,7 @@
       <c r="A6" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>712</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7819,278 +7901,292 @@
       <c r="A7" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>405</v>
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>407</v>
+      <c r="A20" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>417</v>
+      <c r="A30" s="4">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>419</v>
+      <c r="A32" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>421</v>
+      <c r="A34" s="4">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>423</v>
+      <c r="A36" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
         <v>24</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8108,18 +8204,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17.399999999999999">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -8137,37 +8233,45 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.399999999999999">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="5" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B9" s="40"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.399999999999999">
+      <c r="B10" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8316,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -8232,7 +8336,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -8305,7 +8409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -8317,7 +8421,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8327,18 +8431,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A3:C71"/>
+  <dimension ref="A3:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -8356,7 +8460,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -8365,7 +8469,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8376,484 +8480,497 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4">
         <v>6</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4">
-        <v>7</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4">
-        <v>9</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
         <v>11</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4">
-        <v>12</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
         <v>15</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4">
         <v>22</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.2" customHeight="1">
-      <c r="A62" s="4">
+    <row r="63" spans="1:3" ht="13.25" customHeight="1">
+      <c r="A63" s="4">
         <v>23</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4">
+    <row r="64" spans="1:3">
+      <c r="A64" s="4">
         <v>24</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4">
-        <v>25</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4">
+        <v>30</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4">
         <v>31</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>502</v>
       </c>
     </row>
@@ -8869,18 +8986,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A3:C53"/>
+  <dimension ref="A3:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -8898,7 +9015,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -8907,7 +9024,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8918,340 +9035,353 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
         <v>16</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.4">
-      <c r="A43" s="4">
-        <v>17</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
         <v>23</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -9268,18 +9398,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A3:C47"/>
+  <dimension ref="A3:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -9297,7 +9427,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -9306,7 +9436,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9317,304 +9447,317 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.399999999999999">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4">
         <v>19</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4">
+    <row r="42" spans="1:3">
+      <c r="A42" s="4">
         <v>20</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4">
-        <v>21</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4">
         <v>22</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>577</v>
       </c>
     </row>
@@ -9630,19 +9773,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A3:D96"/>
+  <dimension ref="A3:D97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -9660,7 +9803,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>700</v>
       </c>
@@ -9669,7 +9812,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9680,9 +9823,9 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
         <v>701</v>
       </c>
@@ -9691,7 +9834,7 @@
       <c r="A10" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>714</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9702,672 +9845,685 @@
       <c r="A11" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B11" s="40"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.399999999999999">
-      <c r="A13" s="21" t="s">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>595</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>601</v>
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
         <v>13</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.4">
-      <c r="C52" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="C53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="C54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.399999999999999">
-      <c r="A55" s="21" t="s">
+    <row r="56" spans="1:4" ht="18">
+      <c r="A56" s="21" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="1:4">
+      <c r="B59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
         <v>4</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="B67" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4">
-        <v>5</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4">
         <v>6</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="B72" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="C79" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="C80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="C81" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4">
+    <row r="82" spans="1:4">
+      <c r="A82" s="4">
         <v>7</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4">
+    <row r="83" spans="1:4">
+      <c r="A83" s="4">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="B83" s="4" t="s">
+    <row r="84" spans="1:4">
+      <c r="B84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="4" t="s">
+    <row r="85" spans="1:4">
+      <c r="B85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="4" t="s">
+    <row r="86" spans="1:4">
+      <c r="B86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="B86" s="4" t="s">
+    <row r="87" spans="1:4">
+      <c r="B87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="B87" s="4" t="s">
+    <row r="88" spans="1:4">
+      <c r="B88" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="B88" s="4" t="s">
+    <row r="89" spans="1:4">
+      <c r="B89" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="4">
+    <row r="90" spans="1:4">
+      <c r="A90" s="4">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="4">
+    <row r="91" spans="1:4">
+      <c r="A91" s="4">
         <v>10</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="4">
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
         <v>11</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4">
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
         <v>12</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="4">
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
         <v>13</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="4">
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
         <v>14</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="4">
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
         <v>15</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="4">
+    <row r="97" spans="1:2">
+      <c r="A97" s="4">
         <v>16</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>657</v>
       </c>
     </row>
@@ -10384,16 +10540,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A3:C25"/>
+  <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -10408,7 +10566,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -10417,7 +10575,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>715</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10428,130 +10586,140 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>672</v>
       </c>
     </row>
@@ -10568,20 +10736,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:M45"/>
+  <dimension ref="A3:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.69921875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="17.399999999999999">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -10599,7 +10767,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -10608,7 +10776,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10622,322 +10790,335 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="18">
+      <c r="A9" s="43" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="18">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.399999999999999">
-      <c r="A12" s="4">
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.399999999999999">
-      <c r="A13" s="4">
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4">
-      <c r="A24" s="4">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.399999999999999">
-      <c r="A30" s="5" t="s">
+    <row r="32" spans="1:4" ht="18">
+      <c r="A32" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.4">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="37">
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="38">
         <v>4</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="4">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="4">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4">
         <v>14</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:M35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:M37"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10948,18 +11129,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:R60"/>
+  <dimension ref="A3:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -10977,7 +11158,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -10986,7 +11167,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>711</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10997,438 +11178,451 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.399999999999999">
-      <c r="A12" s="4">
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.399999999999999">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="4">
         <v>7</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="37">
+    <row r="39" spans="1:18">
+      <c r="A39" s="38">
         <v>8</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B39" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="4">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="4">
         <v>12</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="37">
+    <row r="45" spans="1:18">
+      <c r="A45" s="38">
         <v>13</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B45" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-    </row>
-    <row r="46" spans="1:18" ht="17.399999999999999">
-      <c r="A46" s="4">
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="1:18" ht="17">
+      <c r="A47" s="4">
         <v>14</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="4">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
         <v>18</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.399999999999999">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:3" ht="18">
+      <c r="A53" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:3" ht="16">
+      <c r="A54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.6">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:3">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="16">
+      <c r="A58" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:R39"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:R45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:R40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:R46"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11439,18 +11633,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:T47"/>
+  <dimension ref="A3:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -11468,7 +11662,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -11477,7 +11671,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -11488,344 +11682,357 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="37"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.399999999999999">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="4">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4">
         <v>11</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="37">
+    <row r="41" spans="1:20">
+      <c r="A41" s="38">
         <v>12</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B41" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="4">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="4">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="4">
         <v>17</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:T41"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:T42"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11836,18 +12043,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:V57"/>
+  <dimension ref="A3:V58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" ht="17.399999999999999">
+    <row r="3" spans="1:22" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -11865,7 +12072,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.399999999999999">
+    <row r="6" spans="1:22" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -11874,7 +12081,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -11885,427 +12092,440 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="37"/>
-    </row>
-    <row r="10" spans="1:22" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:22" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.8" customHeight="1">
-      <c r="A11" s="37">
+    <row r="12" spans="1:22" ht="13.75" customHeight="1">
+      <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="4">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="4">
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.399999999999999">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
         <v>27</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:V12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:V13"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12322,14 +12542,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -12344,7 +12564,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -12362,7 +12582,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
+    <row r="10" spans="1:3" ht="18">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -12479,7 +12699,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.399999999999999">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="4">
         <v>15</v>
       </c>
@@ -12543,7 +12763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999">
+    <row r="33" spans="1:2" ht="17">
       <c r="A33" s="4">
         <v>23</v>
       </c>
@@ -12592,21 +12812,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A3:AI64"/>
+  <dimension ref="A3:AI65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.19921875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="4.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="4.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -12624,7 +12844,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -12633,7 +12853,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -12644,146 +12864,148 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10">
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4">
-      <c r="A16" s="4">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.4" thickBot="1"/>
-    <row r="20" spans="1:35">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:35" ht="15" thickBot="1"/>
+    <row r="21" spans="1:35">
+      <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="14"/>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35">
       <c r="B22" s="15"/>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI22" s="16"/>
     </row>
     <row r="23" spans="1:35">
       <c r="B23" s="15"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>226</v>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="AI23" s="16"/>
     </row>
@@ -12791,10 +13013,10 @@
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI24" s="16"/>
     </row>
@@ -12802,10 +13024,10 @@
       <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AI25" s="16"/>
     </row>
@@ -12813,10 +13035,10 @@
       <c r="B26" s="15"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AI26" s="16"/>
     </row>
@@ -12824,51 +13046,50 @@
       <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI27" s="16"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="B28" s="15"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AI27" s="16"/>
-    </row>
-    <row r="28" spans="1:35" ht="14.4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="AI28" s="16"/>
     </row>
     <row r="29" spans="1:35">
       <c r="B29" s="15"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI29" s="16"/>
     </row>
     <row r="30" spans="1:35">
       <c r="B30" s="15"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>236</v>
+      <c r="D30" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="AI30" s="16"/>
     </row>
     <row r="31" spans="1:35">
       <c r="B31" s="15"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>238</v>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="AI31" s="16"/>
     </row>
@@ -12880,7 +13101,7 @@
         <v>237</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI32" s="16"/>
     </row>
@@ -12892,7 +13113,7 @@
         <v>237</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI33" s="16"/>
     </row>
@@ -12904,49 +13125,50 @@
         <v>237</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI34" s="16"/>
     </row>
     <row r="35" spans="2:35">
       <c r="B35" s="15"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>242</v>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="AI35" s="16"/>
     </row>
     <row r="36" spans="2:35">
       <c r="B36" s="15"/>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>243</v>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="AI36" s="16"/>
     </row>
     <row r="37" spans="2:35">
       <c r="B37" s="15"/>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AI37" s="16"/>
     </row>
     <row r="38" spans="2:35">
       <c r="B38" s="15"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>245</v>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="AI38" s="16"/>
     </row>
@@ -12954,31 +13176,31 @@
       <c r="B39" s="15"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI39" s="16"/>
     </row>
     <row r="40" spans="2:35">
       <c r="B40" s="15"/>
-      <c r="C40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>247</v>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="AI40" s="16"/>
     </row>
     <row r="41" spans="2:35">
       <c r="B41" s="15"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>248</v>
+      <c r="C41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="AI41" s="16"/>
     </row>
@@ -12986,10 +13208,10 @@
       <c r="B42" s="15"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI42" s="16"/>
     </row>
@@ -12997,196 +13219,207 @@
       <c r="B43" s="15"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI43" s="16"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="15"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AI43" s="16"/>
-    </row>
-    <row r="44" spans="2:35">
-      <c r="B44" s="15" t="s">
+      <c r="AI44" s="16"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AI44" s="16"/>
-    </row>
-    <row r="45" spans="2:35">
-      <c r="B45" s="15"/>
-      <c r="C45" s="4" t="s">
+      <c r="AI45" s="16"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="15"/>
+      <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AI45" s="16"/>
-    </row>
-    <row r="46" spans="2:35" ht="18" thickBot="1">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
+      <c r="AI46" s="16"/>
+    </row>
+    <row r="47" spans="2:35" ht="18" thickBot="1">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="20"/>
-    </row>
-    <row r="49" spans="1:3" ht="17.399999999999999">
-      <c r="A49" s="5" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="18">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4">
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
         <v>1</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.399999999999999">
-      <c r="A51" s="4">
+    <row r="52" spans="1:3" ht="17">
+      <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.399999999999999">
-      <c r="A52" s="4">
+    <row r="53" spans="1:3" ht="17">
+      <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4">
-        <v>4</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17.399999999999999">
-      <c r="A55" s="4">
+    <row r="56" spans="1:3" ht="17">
+      <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.399999999999999">
-      <c r="A59" s="4">
+    <row r="60" spans="1:3" ht="17">
+      <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="4">
+    <row r="63" spans="1:3">
+      <c r="A63" s="4">
         <v>11</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.399999999999999">
-      <c r="A63" s="4">
+    <row r="64" spans="1:3" ht="17">
+      <c r="A64" s="4">
         <v>12</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.399999999999999">
-      <c r="A64" s="4">
+    <row r="65" spans="1:2" ht="17">
+      <c r="A65" s="4">
         <v>13</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13202,20 +13435,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A3:D35"/>
+  <dimension ref="A3:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -13233,7 +13466,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -13242,7 +13475,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>713</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -13253,204 +13486,217 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4">
-      <c r="A13" s="4">
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4">
-      <c r="A14" s="4">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
         <v>11</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13466,18 +13712,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:E52"/>
+  <dimension ref="A3:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="5" t="s">
         <v>674</v>
       </c>
@@ -13495,7 +13741,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>675</v>
       </c>
@@ -13504,7 +13750,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -13515,129 +13761,131 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>299</v>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>302</v>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>304</v>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>305</v>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13648,227 +13896,238 @@
         <v>237</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>307</v>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>308</v>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4">
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.399999999999999">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4">
         <v>9</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4">
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
         <v>10</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4">
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
         <v>11</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4">
+    <row r="52" spans="1:3">
+      <c r="A52" s="4">
         <v>12</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4">
+    <row r="53" spans="1:3">
+      <c r="A53" s="4">
         <v>13</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>332</v>
       </c>
     </row>
@@ -13883,21 +14142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D4AAF70D5E4D4C479F7303545DE58E53" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="bebbe8dc72ad74f106cba7cc94aace28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f5cb02d-48f2-4eb4-968b-c7396f7ae9d3" xmlns:ns3="8548a873-0cd4-4193-b3a1-901798e80be5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c0dfdc5809c5aebc49f85804194d239" ns2:_="" ns3:_="">
     <xsd:import namespace="8f5cb02d-48f2-4eb4-968b-c7396f7ae9d3"/>
@@ -14114,24 +14358,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9CF389D-82D3-492D-A2CF-52FF40CD9F71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96056284-8D64-4668-9B7E-4449CA148E46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{661BD8E8-9D07-451D-8214-479A21311AC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14148,4 +14390,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96056284-8D64-4668-9B7E-4449CA148E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9CF389D-82D3-492D-A2CF-52FF40CD9F71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/RCT_Study Criteria v1.1.xlsx
+++ b/documents/RCT_Study Criteria v1.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD082A-E070-314A-AB0E-7C412E7B006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4789C355-67DA-A443-B489-DB946DBDBCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-2480" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-62440" yWindow="1140" windowWidth="33440" windowHeight="21360" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="735">
   <si>
     <t>혈당강하제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4702,6 +4702,10 @@
   </si>
   <si>
     <t>12 Months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5151,6 +5155,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5174,10 +5182,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7205,11 +7209,11 @@
     </row>
     <row r="12" spans="2:6" ht="12" customHeight="1" thickBot="1"/>
     <row r="13" spans="2:6" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7243,8 +7247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7279,7 +7283,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7290,7 +7294,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="5" t="s">
@@ -7890,7 +7894,7 @@
       <c r="A6" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7901,7 +7905,7 @@
       <c r="A7" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="5" t="s">
@@ -7913,7 +7917,7 @@
       <c r="A9" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8242,7 +8246,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8256,7 +8260,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18">
       <c r="A9" s="5" t="s">
@@ -8469,7 +8473,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8480,7 +8484,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -9024,7 +9028,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9035,7 +9039,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -9436,7 +9440,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>673</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9447,7 +9451,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -9812,7 +9816,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9823,7 +9827,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -9834,7 +9838,7 @@
       <c r="A10" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>714</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9845,7 +9849,7 @@
       <c r="A11" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="5" t="s">
@@ -10540,10 +10544,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A3:C26"/>
+  <dimension ref="A3:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10575,7 +10579,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>715</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10586,7 +10590,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="44"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -10643,7 +10647,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:16">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:16">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:16">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -10667,15 +10671,18 @@
         <v>665</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:16">
       <c r="A20" s="4">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="P20" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -10683,7 +10690,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:16">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -10691,7 +10698,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:16">
       <c r="A23" s="4">
         <v>12</v>
       </c>
@@ -10699,7 +10706,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:16">
       <c r="A24" s="4">
         <v>13</v>
       </c>
@@ -10707,7 +10714,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:16">
       <c r="A25" s="4">
         <v>14</v>
       </c>
@@ -10715,7 +10722,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4">
         <v>15</v>
       </c>
@@ -10738,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+    <sheetView topLeftCell="A13" zoomScale="140" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10776,7 +10783,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10790,10 +10797,10 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11002,38 +11009,38 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="38">
+      <c r="A36" s="40">
         <v>4</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4">
@@ -11131,8 +11138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:R61"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11167,7 +11174,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>711</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -11178,7 +11185,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -11403,48 +11410,48 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="38">
+      <c r="A39" s="40">
         <v>8</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4">
@@ -11479,48 +11486,48 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="38">
+      <c r="A45" s="40">
         <v>13</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="17">
       <c r="A47" s="4">
@@ -11635,8 +11642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11671,7 +11678,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -11682,7 +11689,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -11933,52 +11940,52 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="38">
+      <c r="A41" s="40">
         <v>12</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="4"/>
@@ -12045,8 +12052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:V58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -12081,7 +12088,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -12092,7 +12099,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:22" ht="18">
       <c r="A9" s="5" t="s">
@@ -12113,56 +12120,56 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.75" customHeight="1">
-      <c r="A12" s="38">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="4">
@@ -12814,8 +12821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:AI65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -12853,7 +12860,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>710</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -12864,7 +12871,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -13438,7 +13445,7 @@
   <dimension ref="A3:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -13475,7 +13482,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>713</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -13486,7 +13493,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="44"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -13715,7 +13722,7 @@
   <dimension ref="A3:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -13750,7 +13757,7 @@
       <c r="A7" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -13761,7 +13768,7 @@
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="5" t="s">
@@ -14359,18 +14366,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14393,18 +14400,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96056284-8D64-4668-9B7E-4449CA148E46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9CF389D-82D3-492D-A2CF-52FF40CD9F71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96056284-8D64-4668-9B7E-4449CA148E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>